--- a/cargarPlantas/plantas.xlsx
+++ b/cargarPlantas/plantas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manegar\Desktop\clase_git\programacion\Practica-3-evaluacion\cargarPlantas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\GitHub\Programacion\Practica-3-evaluacion\cargarPlantas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F78162-E365-4A20-B9BD-D83FA833C85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>nombre</t>
   </si>
@@ -38,19 +39,40 @@
     <t>ultimoRiego</t>
   </si>
   <si>
-    <t>margarita</t>
-  </si>
-  <si>
-    <t>flor</t>
-  </si>
-  <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>Aromática</t>
+  </si>
+  <si>
+    <t>Orquídea</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Tomatera</t>
+  </si>
+  <si>
+    <t>Hortaliza</t>
+  </si>
+  <si>
+    <t>Menta</t>
+  </si>
+  <si>
+    <t>Bambú</t>
+  </si>
+  <si>
+    <t>Decorativa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,11 +384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,16 +413,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
